--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-Appointment</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -332,7 +332,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-virtual-service}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-virtual-service}
 </t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-group}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-group}
 </t>
   </si>
   <si>
@@ -368,7 +368,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-partof}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-partof}
 </t>
   </si>
   <si>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-no-basis-Appointment.xlsx
+++ b/StructureDefinition-no-basis-Appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
